--- a/backend/public/excel/Supplier.xlsx
+++ b/backend/public/excel/Supplier.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="4000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4005" uniqueCount="4005">
   <si>
     <t>No</t>
   </si>
@@ -28,6 +28,30 @@
     <t>Address</t>
   </si>
   <si>
+    <t>Shawna Yele</t>
+  </si>
+  <si>
+    <t>608-126-4164</t>
+  </si>
+  <si>
+    <t>syele0@aol.com</t>
+  </si>
+  <si>
+    <t>752 Golden Leaf Road</t>
+  </si>
+  <si>
+    <t>Ramona Godain</t>
+  </si>
+  <si>
+    <t>143-861-2112</t>
+  </si>
+  <si>
+    <t>rgodain1@telegraph.co.uk</t>
+  </si>
+  <si>
+    <t>6 Russell Center</t>
+  </si>
+  <si>
     <t>Katuscha Kubala</t>
   </si>
   <si>
@@ -12002,15 +12026,6 @@
   </si>
   <si>
     <t>56695 Arapahoe Crossing</t>
-  </si>
-  <si>
-    <t>saya riky saya riky aja</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Nusa Tenggara</t>
   </si>
 </sst>
 </file>
@@ -12399,7 +12414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E1001"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -29402,9 +29417,28 @@
       <c r="C1000" s="2" t="s">
         <v>3998</v>
       </c>
-      <c r="D1000" s="2"/>
+      <c r="D1000" s="2" t="s">
+        <v>3999</v>
+      </c>
       <c r="E1000" s="2" t="s">
-        <v>3999</v>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C1001" s="2" t="s">
+        <v>4002</v>
+      </c>
+      <c r="D1001" s="2" t="s">
+        <v>4003</v>
+      </c>
+      <c r="E1001" s="2" t="s">
+        <v>4004</v>
       </c>
     </row>
   </sheetData>
